--- a/data_process/xlsx/jongno_C5.xlsx
+++ b/data_process/xlsx/jongno_C5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,16 @@
           <t>contact</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>비밀의화원 시네마틱 혜화점</t>
+          <t>HIDE AND SEEK 쌈지길점</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,29 +483,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>1045</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>서울 종로구 대명길 9 지하2층</t>
+          <t>서울 종로구 인사동길 44 쌈지길 B2층</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>02-763-3289</t>
+          <t>010-3235-5900</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1007103754/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143073025</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>시크릿챔버</t>
+          <t>비밀의화원 시네마틱 혜화점</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -515,24 +525,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>606</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>서울 종로구 창경궁로 258-12 2층</t>
+          <t>서울 종로구 대명길 9 지하2층</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>02-745-1614</t>
+          <t>02-763-3289</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1798307935/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143084652</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HIDE AND SEEK 쌈지길점</t>
+          <t>시크릿챔버</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -542,29 +557,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>606</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동길 44 쌈지길 B2층</t>
+          <t>서울 종로구 창경궁로 258-12 2층</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>010-3235-5900</t>
+          <t>02-745-1614</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/37641764/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143094148</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>상상의문 대학로점</t>
+          <t>셜록홈즈 대학로점</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -574,29 +594,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>정보 없음</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>서울 종로구 창경궁로34길 18-5 지하 3층</t>
+          <t>서울 종로구 대학로10길 5 4층</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>02-765-7771</t>
+          <t>0507-1302-0198</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1907056844/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143103525</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>셜록홈즈 대학로점</t>
+          <t>상상의문 대학로점</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -611,17 +636,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>1037</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로10길 5 4층</t>
+          <t>서울 종로구 창경궁로34길 18-5 지하 3층</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0507-1302-0198</t>
+          <t>02-765-7771</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1629617329/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143112669</t>
         </is>
       </c>
     </row>
@@ -638,12 +668,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>153</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -654,6 +684,11 @@
       <c r="F7" t="inlineStr">
         <is>
           <t>0507-1388-8402</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1203808746/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143121819</t>
         </is>
       </c>
     </row>
@@ -688,11 +723,16 @@
           <t>0507-1414-0955</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/491249986/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143132680</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>비밀의화원 대학로점</t>
+          <t>셜록홈즈 종각점</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -712,19 +752,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 130 지하 1층</t>
+          <t>서울 종로구 삼일대로17길 17 4층 셜록홈즈 종각</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0507-1373-8901</t>
+          <t>0507-1358-0522</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1186945281/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143142296</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>셜록홈즈 종각점</t>
+          <t>비트포비아 대학로</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -734,29 +779,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>167</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>서울 종로구 삼일대로17길 17 4층 셜록홈즈 종각</t>
+          <t>서울 종로구 대학로10길 12 5층</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0507-1358-0522</t>
+          <t>02-742-5252</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/37663526/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143151495</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>비트포비아 대학로</t>
+          <t>비밀의화원 대학로점</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -766,22 +816,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로10길 12 5층</t>
+          <t>서울 종로구 대학로 130 지하 1층</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>02-742-5252</t>
+          <t>0507-1373-8901</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1625220556/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143160469</t>
         </is>
       </c>
     </row>
@@ -798,12 +853,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -814,6 +869,11 @@
       <c r="F12" t="inlineStr">
         <is>
           <t>02-747-9003</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1954470905/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143170041</t>
         </is>
       </c>
     </row>
@@ -830,12 +890,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>411</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -846,6 +906,11 @@
       <c r="F13" t="inlineStr">
         <is>
           <t>02-742-7007</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/37429906/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143179281</t>
         </is>
       </c>
     </row>
@@ -880,6 +945,11 @@
           <t>0507-1343-8094</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/37629951/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143188359</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -899,7 +969,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>280</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -910,13 +980,18 @@
       <c r="F15" t="inlineStr">
         <is>
           <t>02-319-7316</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/215618975/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143197511</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>룸 이에스씨</t>
+          <t>cafe 탈출카페</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -926,54 +1001,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>서울 종로구 동숭길 41 5층</t>
+          <t>서울 종로구 율곡로3길 66-7</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>02-765-0250</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>cafe 탈출카페</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>방탈출카페</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>서울 종로구 율곡로3길 66-7</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>02-4746-4643</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/946227144/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143206885</t>
         </is>
       </c>
     </row>

--- a/data_process/xlsx/jongno_C5.xlsx
+++ b/data_process/xlsx/jongno_C5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>url</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>create_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,7 +493,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>1072</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,7 +508,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1007103754/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143073025</t>
+          <t>https://pcmap.place.naver.com/place/1007103754/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9848766&amp;y=37.5742648&amp;timestamp=202309071829</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
     </row>
@@ -525,7 +535,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>618</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -540,14 +550,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1798307935/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143084652</t>
+          <t>https://pcmap.place.naver.com/place/1798307935/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0009754&amp;y=37.5835062&amp;timestamp=202309071829</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>시크릿챔버</t>
+          <t>에필로그</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -557,34 +572,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>163</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>서울 종로구 창경궁로 258-12 2층</t>
+          <t>서울 종로구 대학로8가길 48 지층</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>02-745-1614</t>
+          <t>0507-1388-8402</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37641764/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143094148</t>
+          <t>https://pcmap.place.naver.com/place/1203808746/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0024406&amp;y=37.5829368&amp;timestamp=202309071829</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>셜록홈즈 대학로점</t>
+          <t>시크릿챔버</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -604,24 +624,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로10길 5 4층</t>
+          <t>서울 종로구 창경궁로 258-12 2층</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0507-1302-0198</t>
+          <t>02-745-1614</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1907056844/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143103525</t>
+          <t>https://pcmap.place.naver.com/place/37641764/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00033356128282&amp;y=37.583678973869496&amp;timestamp=202309071829</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>상상의문 대학로점</t>
+          <t>덤앤더머 방탈출카페</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -631,34 +656,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>서울 종로구 창경궁로34길 18-5 지하 3층</t>
+          <t>서울 종로구 동숭길 143 로얄케스트 지하</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>02-765-7771</t>
+          <t>02-741-0955</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1629617329/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143112669</t>
+          <t>https://pcmap.place.naver.com/place/491249986/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.002399200485&amp;y=37.5833286004307&amp;timestamp=202309071829</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>에필로그</t>
+          <t>상상의문 대학로점</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -673,29 +703,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로8가길 48 지층</t>
+          <t>서울 종로구 창경궁로34길 18-5 지하 3층</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0507-1388-8402</t>
+          <t>02-765-7771</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1203808746/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143121819</t>
+          <t>https://pcmap.place.naver.com/place/1629617329/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0008253&amp;y=37.5841148&amp;timestamp=202309071829</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>덤앤더머 방탈출카페</t>
+          <t>셜록홈즈 대학로점</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -705,34 +740,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1046</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>서울 종로구 동숭길 143 로얄케스트</t>
+          <t>서울 종로구 대학로10길 5 4층</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0507-1414-0955</t>
+          <t>0507-1302-0198</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/491249986/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143132680</t>
+          <t>https://pcmap.place.naver.com/place/1907056844/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0025831&amp;y=37.5818573&amp;timestamp=202309071829</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>셜록홈즈 종각점</t>
+          <t>비밀의화원 대학로점</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -742,34 +782,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1193</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>서울 종로구 삼일대로17길 17 4층 셜록홈즈 종각</t>
+          <t>서울 종로구 대학로 130 지하 1층</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0507-1358-0522</t>
+          <t>0507-1373-8901</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1186945281/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143142296</t>
+          <t>https://pcmap.place.naver.com/place/1625220556/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0021374&amp;y=37.582893&amp;timestamp=202309071829</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>비트포비아 대학로</t>
+          <t>셜록홈즈 종각점</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -784,29 +829,34 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>168</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로10길 12 5층</t>
+          <t>서울 종로구 삼일대로17길 17 4층 셜록홈즈 종각</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>02-742-5252</t>
+          <t>0507-1358-0522</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37663526/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143151495</t>
+          <t>https://pcmap.place.naver.com/place/1186945281/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98651826511795&amp;y=37.56912977257185&amp;timestamp=202309071829</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>비밀의화원 대학로점</t>
+          <t>비트포비아 대학로</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -816,27 +866,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>880</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 130 지하 1층</t>
+          <t>서울 종로구 대학로10길 12 5층</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0507-1373-8901</t>
+          <t>02-742-5252</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1625220556/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143160469</t>
+          <t>https://pcmap.place.naver.com/place/37663526/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0028096&amp;y=37.5816118&amp;timestamp=202309071830</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
     </row>
@@ -853,12 +908,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>412</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -873,7 +928,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1954470905/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143170041</t>
+          <t>https://pcmap.place.naver.com/place/1954470905/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0028144&amp;y=37.5824911&amp;timestamp=202309071830</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
     </row>
@@ -890,12 +950,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>453</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -910,7 +970,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37429906/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143179281</t>
+          <t>https://pcmap.place.naver.com/place/37429906/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0028329&amp;y=37.582749&amp;timestamp=202309071830</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
     </row>
@@ -927,12 +992,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>280</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -947,7 +1012,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37629951/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143188359</t>
+          <t>https://pcmap.place.naver.com/place/37629951/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9854332&amp;y=37.5632664&amp;timestamp=202309071830</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
     </row>
@@ -964,12 +1034,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -984,7 +1054,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/215618975/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143197511</t>
+          <t>https://pcmap.place.naver.com/place/215618975/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9844144&amp;y=37.5636223&amp;timestamp=202309071830</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1096,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/946227144/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143206885</t>
+          <t>https://pcmap.place.naver.com/place/946227144/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98253473292901&amp;y=37.578664906778805&amp;timestamp=202309071830</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:28:58</t>
         </is>
       </c>
     </row>
